--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9984432846438851</v>
+        <v>0.9965879207216339</v>
       </c>
       <c r="E2">
-        <v>0.9984432846438851</v>
+        <v>0.9965879207216339</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1907394361898354</v>
+        <v>0.2242129573003275</v>
       </c>
       <c r="E3">
-        <v>0.1907394361898354</v>
+        <v>0.2242129573003275</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.131308107144232E-05</v>
+        <v>1.109755972218863E-05</v>
       </c>
       <c r="E4">
-        <v>1.131308107144232E-05</v>
+        <v>1.109755972218863E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5.611829532940666E-08</v>
+        <v>3.161661567655543E-12</v>
       </c>
       <c r="E5">
-        <v>5.611829532940666E-08</v>
+        <v>3.161661567655543E-12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.623357721746488E-22</v>
+        <v>1.223105458855084E-26</v>
       </c>
       <c r="E6">
-        <v>1.623357721746488E-22</v>
+        <v>1.223105458855084E-26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0003623088153374145</v>
+        <v>0.0005996398139138991</v>
       </c>
       <c r="E7">
-        <v>0.9996376911846626</v>
+        <v>0.9994003601860861</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999542974357286</v>
+        <v>0.9965646365404647</v>
       </c>
       <c r="E9">
-        <v>4.570256427138819E-05</v>
+        <v>0.003435363459535323</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.725859467259357E-07</v>
+        <v>0.001260329975148793</v>
       </c>
       <c r="E10">
-        <v>0.9999997274140533</v>
+        <v>0.9987396700248512</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.086401402574492E-05</v>
+        <v>3.436328449115282E-11</v>
       </c>
       <c r="E11">
-        <v>0.9999191359859743</v>
+        <v>0.9999999999656367</v>
       </c>
       <c r="F11">
-        <v>3.913793563842773</v>
+        <v>4.412735939025879</v>
       </c>
       <c r="G11">
         <v>0.6</v>
